--- a/Project Files/Forms System Final/exports/jh_sf8.xlsx
+++ b/Project Files/Forms System Final/exports/jh_sf8.xlsx
@@ -13,14 +13,14 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="10_Pupils (0)" sheetId="1" r:id="rId1"/>
+    <sheet name="70_Pupils (6)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="66">
   <si>
     <t>Department of Education</t>
   </si>
@@ -252,61 +252,37 @@
     <t>Male</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>123456789023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rizal, Jose </t>
-  </si>
-  <si>
-    <t>05/13/2006</t>
-  </si>
-  <si>
-    <t>0: 0</t>
+    <t>123543457474</t>
+  </si>
+  <si>
+    <t>Paderogao, Phil Rey, E. Jr</t>
+  </si>
+  <si>
+    <t>12/11/2006</t>
+  </si>
+  <si>
+    <t>15: 10</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.2500</t>
+  </si>
+  <si>
+    <t>17.7</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>No Record</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>123543457474</t>
-  </si>
-  <si>
-    <t>Paderogao, Phil Rey, E. Jr</t>
-  </si>
-  <si>
-    <t>12/11/2006</t>
-  </si>
-  <si>
-    <t>15: 10</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.2500</t>
-  </si>
-  <si>
-    <t>17.7</t>
   </si>
 </sst>
 </file>
@@ -1204,27 +1180,27 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
+      <xdr:colOff>430307</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600635</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>135102</xdr:rowOff>
+      <xdr:rowOff>150230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1041" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC60DC1-3241-43F4-8E0D-8EF002ECB88F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832B108E-40DE-4657-9B8E-81C1E1BF5802}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1222,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2286000" y="0"/>
+          <a:off x="2290483" y="15128"/>
           <a:ext cx="779929" cy="773837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1284,20 +1260,20 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>10232</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>27283</xdr:rowOff>
+      <xdr:rowOff>16078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>820466</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>65125</xdr:rowOff>
+      <xdr:rowOff>53920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AEF25A-1EA2-4093-8D14-C45D6406EE29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F06B14E-DB4B-4030-AD5C-C970A836FA8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1295,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9154232" y="27283"/>
+          <a:off x="9154232" y="16078"/>
           <a:ext cx="1527410" cy="676577"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1627,12 +1603,12 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1912,109 +1888,99 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="34" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H12" s="21"/>
       <c r="I12" s="21" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>63</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="21"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="21" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="I13" s="21" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="21" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>69</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:15">
@@ -2220,350 +2186,2237 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75">
-      <c r="A24" s="43" t="s">
+      <c r="A23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" ht="15.75">
+      <c r="A84" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" ht="30" customHeight="1" thickBot="1">
-      <c r="A26" s="46" t="s">
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15" ht="30" customHeight="1" thickBot="1">
+      <c r="A86" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47" t="s">
+      <c r="B86" s="46"/>
+      <c r="C86" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47" t="s">
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-    </row>
-    <row r="27" spans="1:15" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="48" t="s">
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+    </row>
+    <row r="87" spans="1:15" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="7" t="s">
+      <c r="D87" s="48"/>
+      <c r="E87" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J87" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K87" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L87" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M87" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="49" t="s">
+      <c r="N87" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="49"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="36" t="s">
+      <c r="O87" s="49"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A29" s="37" t="s">
+      <c r="B88" s="36"/>
+      <c r="C88" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="50"/>
+      <c r="E88" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N88" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="O88" s="50"/>
+    </row>
+    <row r="89" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A89" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A30" s="38" t="s">
+      <c r="B89" s="37"/>
+      <c r="C89" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="56"/>
+      <c r="E89" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N89" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="O89" s="56"/>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A90" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="45" t="s">
+      <c r="B90" s="38"/>
+      <c r="C90" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" s="57"/>
+      <c r="E90" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M90" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N90" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="O90" s="57"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="45" t="s">
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="45" t="s">
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="45" t="s">
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A34" s="55" t="s">
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+    </row>
+    <row r="94" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A94" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="M36" s="51" t="s">
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="55"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="M96" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="C5:D5"/>
+  <mergeCells count="120">
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C82:F82"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M96:O96"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="J86:O86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A9:A10"/>
@@ -2571,30 +4424,14 @@
     <mergeCell ref="C9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A24:O24"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8 D6">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>#REF!&gt;6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!&gt;6</formula>
     </cfRule>
   </conditionalFormatting>
